--- a/pre/fater/2/hr/slimatika/Преленд 7.2 Потолстела на карантине Slimatika HR.xlsx
+++ b/pre/fater/2/hr/slimatika/Преленд 7.2 Потолстела на карантине Slimatika HR.xlsx
@@ -280,7 +280,7 @@
     <t>KapI Slimatika</t>
   </si>
   <si>
-    <t>pokazale su se izvrsnim tijekom obveznog testiranja lijeka. Također, većina onih koji su uzimali Slimatika kapi za mršavljenje prijavila je nevjerojatan učinak. Zašto ste imali tako nizak rezultat? Za to postoji više razloga. Prvo, dvaput provjerite jeste li izračunali ispravnu dozu za sebe. Drugo, provjerite svoju prehranu. Neki potrošači vjeruju da od kada su počeli uzimati Fortunella kapsule, odnosno, sada mogu uzeti tri puta više. Ali to nije slučaj. Ponovno pročitajte upute za uporabu</t>
+    <t>pokazale su se izvrsnim tijekom obveznog testiranja lijeka. Također, većina onih koji su uzimali Slimatika kapi za mršavljenje prijavila je nevjerojatan učinak. Zašto ste imali tako nizak rezultat? Za to postoji više razloga. Prvo, dvaput provjerite jeste li izračunali ispravnu dozu za sebe. Drugo, provjerite svoju prehranu. Neki potrošači vjeruju da od kada su počeli uzimati Slimatika  kapsule, odnosno, sada mogu uzeti tri puta više. Ali to nije slučaj. Ponovno pročitajte upute za uporabu</t>
   </si>
   <si>
     <t>Kapi Slimatika</t>
@@ -304,7 +304,7 @@
     <t>prekratak je period. Za to vrijeme tijelo se samo obnavlja i pokreće prethodno skrivene mehanizme za gubitak kilograma. Morate uzimati</t>
   </si>
   <si>
-    <t>kapi Fortunella</t>
+    <t xml:space="preserve">kapi Slimatika </t>
   </si>
   <si>
     <t>barem mjesec dana. Tada će se osjetiti učinak. Prvo ćete završiti cijeli tečaj za mršavljenje. I drugo, vaše tijelo će imati vremena da se obnovi i radiće u drugačijem načinu. Naravno, ne morate uzimati lijek za život. Ali za konsolidaciju rezultata preporučujemo ponoviti tijek primjene za 4-6 mjeseci.</t>
